--- a/Translations/List.xlsx
+++ b/Translations/List.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Domain</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Poprawane</t>
   </si>
   <si>
+    <t>Correct</t>
+  </si>
+  <si>
     <t>app.reports.dashboard.defective_parts</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t xml:space="preserve">Defective components</t>
   </si>
   <si>
+    <t>Defective</t>
+  </si>
+  <si>
     <t>app.reports.dashboard.defectivenes_nok</t>
   </si>
   <si>
@@ -102,7 +108,7 @@
     <t xml:space="preserve">Defectiveness (NOK)</t>
   </si>
   <si>
-    <t xml:space="preserve">app.reports.dashboard.defectivenes_non_optimised </t>
+    <t>app.reports.dashboard.defectivenes_non_optimised</t>
   </si>
   <si>
     <t xml:space="preserve">Defectiveness (Non-reworked)</t>
@@ -111,6 +117,9 @@
     <t xml:space="preserve">Wadliwość (Not reworked)</t>
   </si>
   <si>
+    <t xml:space="preserve">Defectiveness (Not reworked)</t>
+  </si>
+  <si>
     <t>app.reports.dashboard.avg_control_time</t>
   </si>
   <si>
@@ -126,9 +135,6 @@
     <t>app.reports.dashboard.repaired</t>
   </si>
   <si>
-    <t>Defective</t>
-  </si>
-  <si>
     <t>app.reports.dashboard.defective</t>
   </si>
   <si>
@@ -144,9 +150,6 @@
     <t>Poprawne</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>app.reports.defective_parts</t>
   </si>
   <si>
@@ -156,19 +159,115 @@
     <t>app.reports.defectiveness_optimization</t>
   </si>
   <si>
+    <t xml:space="preserve">Wadliwość (NOK/ Not reworked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defectiveness (NOK/ Non-reworked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defectiveness (NOK/ Not reworked)</t>
+  </si>
+  <si>
+    <t>app.order.components.checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawdzone komponenty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Components checked</t>
+  </si>
+  <si>
+    <t>app.reports.dashboard.total_defectivenes.repaired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reworked (ilość komponentów)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reworked </t>
+  </si>
+  <si>
+    <t>app.reports.not_optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not reworked (ilość komponentów)</t>
+  </si>
+  <si>
+    <t>app.order.defectiveness_optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wadliwość (NOK /not reworked)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Defectiveness (NOK/Non-reworked)</t>
   </si>
   <si>
-    <t xml:space="preserve">Wadliwość (NOK/ Not reworked)</t>
+    <t>app.order_report.row.checked_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilość komponentów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity of components</t>
+  </si>
+  <si>
+    <t>app.order_report.row.correct_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilość komponentów OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity of OK components</t>
+  </si>
+  <si>
+    <t>app.order_report.row.defective_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma wadliwych komponentów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total defect components</t>
+  </si>
+  <si>
+    <t>app.order_report.row.repaired_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Components reworked</t>
+  </si>
+  <si>
+    <t>app.order_report.row.not_repaired_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Components not reworked</t>
+  </si>
+  <si>
+    <t>app.order_report.row.total_correct_parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilość poprawnych komponentów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total correct components</t>
+  </si>
+  <si>
+    <t>app.order_report.row.total_defective_parts</t>
+  </si>
+  <si>
+    <t>app.order_report.generated_report.defective_parts_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% wadliwych komponentów (NOK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defective components (NOK) %</t>
+  </si>
+  <si>
+    <t>app.order_report.generated_report.defective_parts_non_optimised_percent</t>
   </si>
   <si>
     <t xml:space="preserve">% wadliwych komponentów (Not reworked)</t>
   </si>
   <si>
-    <t xml:space="preserve">% Wadliwości (Not reworked)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Defectiveness (Not reworked)</t>
+    <t>forms</t>
   </si>
 </sst>
 </file>
@@ -189,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +301,15 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill/>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,24 +317,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +863,10 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.28125"/>
-    <col customWidth="1" min="2" max="2" width="47.8515625"/>
-    <col customWidth="1" min="3" max="3" width="40.00390625"/>
+    <col customWidth="1" min="2" max="2" width="69.8515625"/>
+    <col customWidth="1" min="3" max="3" width="39.28125"/>
     <col customWidth="1" min="4" max="4" width="32.7109375"/>
-    <col customWidth="1" min="5" max="5" width="37.421875"/>
+    <col customWidth="1" min="5" max="5" width="30.00390625"/>
     <col customWidth="1" min="6" max="6" width="36.8515625"/>
     <col min="7" max="16384" width="9.140625"/>
   </cols>
@@ -884,7 +1008,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="14.25">
@@ -892,19 +1016,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -912,19 +1036,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="14.25">
@@ -932,19 +1056,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -952,19 +1076,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="14.25">
@@ -972,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
@@ -984,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -992,13 +1116,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -1012,19 +1136,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="14.25">
@@ -1032,19 +1156,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -1052,19 +1176,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -1072,19 +1196,439 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
